--- a/src/test/resources/products2.xlsx
+++ b/src/test/resources/products2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
@@ -18,26 +18,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
     <t>Eau de Parfum</t>
   </si>
   <si>
-    <t>size</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>art</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,6 +158,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -187,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -362,18 +369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -382,15 +387,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>120589</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -399,12 +404,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>120590</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -420,12 +425,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -433,12 +438,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
